--- a/analysis/true_joint_effects.xlsx
+++ b/analysis/true_joint_effects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weijia/Research/Huels/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09307BAC-4501-094B-B598-4C7FA19A037A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35AE385-1B83-834C-A00B-0D57D9DC9515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2140" windowWidth="29400" windowHeight="16880" xr2:uid="{247F6CD9-CF5C-B142-825A-0BB48B16A08E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Scenario</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>BWS</t>
-  </si>
-  <si>
-    <t>BWQS</t>
   </si>
   <si>
     <t>0/0</t>
@@ -467,7 +464,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="215" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,10 +483,10 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -497,9 +494,7 @@
       <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -509,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -533,13 +528,13 @@
         <v>0.25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>0.25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1">
         <v>0.16861999999999999</v>
@@ -557,13 +552,13 @@
         <v>0.25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>0.25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1">
         <v>0.16861999999999999</v>
@@ -581,13 +576,13 @@
         <v>0.25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1">
         <v>0.1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1">
         <v>6.7449999999999996E-2</v>
@@ -599,7 +594,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>0.33800000000000002</v>
@@ -623,7 +618,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>0.25</v>
